--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_189.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_189.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,610 +488,680 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_194</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3405405405405405</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
-        </is>
+          <t>isophonics_244</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_271</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G'], ['D', 'G', 'D']]</t>
+          <t>[['F', 'F/7', 'D:min'], ['Bb', 'F', 'F']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(140.58, 143.32), (138.02, 142.34)]</t>
+          <t>[['E/5', 'E', 'C#:min'], ['A', 'E', 'E/5']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(142.379117, 147.510727), (144.085784, 149.240614)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:00:15.300272', '0:00:18.887755'), ('0:00:20.130022', '0:00:25.095075')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:01:02.670131', '0:01:10.008185'), ('0:00:59.907505', '0:01:03.843287')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_233</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.06911764705882353</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>jaah_25</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1563218390804598</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:7', 'C:min']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(36.711, 39.787)]</t>
+          <t>[['F:7', 'Bb', 'F:7', 'Bb']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(23.3, 26.86)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:01:04.480000', '0:01:12.760000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:48.250000', '0:00:53.910000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2598235765838011</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>isophonics_185</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_57</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1954887218045113</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
+          <t>[['A', 'G:maj/9', 'A', 'A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(102.0, 126.44)]</t>
+          <t>[['G', 'F', 'G', 'G']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(181.06, 223.32)]</t>
+          <t>[('0:00:52.355759', '0:01:14.960385')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:05.853174', '0:00:11.774262')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_43</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2232142857142857</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(5.44, 10.01)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(227.62, 235.06)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:00:16.040000', '0:00:21')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:01:01.300000', '0:01:10.460000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_8</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1623931623931624</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A', 'B', 'E', 'B']]</t>
-        </is>
+          <t>isophonics_0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.08557692307692308</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'G', 'C:maj', 'G:maj']]</t>
+          <t>[['Db', 'Db:7', 'Gb']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(57.152004, 63.328512)]</t>
+          <t>[['G:maj', 'G:7/F', 'C:maj/E']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(32.808, 37.075)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:24.642743', '0:00:31.492630')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:53.320000', '0:01:01.840000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_298</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.475</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_5</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.06976744186046512</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(0.344657, 11.337709)]</t>
+          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(111.92, 115.36)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:12.420000', '0:00:27.080000'), ('0:01:13.620000', '0:01:21.040000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:13.600000', '0:00:17.780000'), ('0:00:31.340000', '0:00:33.520000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1985815602836879</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>isophonics_50</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.425</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C', 'F/5', 'C']]</t>
+          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(3.988594, 7.754783)]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(5.121, 12.601)]</t>
+          <t>[('0:00:58.300068', '0:01:03.443287'), ('0:00:37.936167', '0:00:42.951678')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+          <t>[('0:02:22.380000', '0:02:25.800000'), ('0:02:18.800000', '0:02:24.460000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_241</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.194331983805668</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G', 'C:min', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'D#:min', 'B:maj']]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(54.639, 59.554)]</t>
+          <t>[['A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(7.98, 12.0)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:02.640000', '0:00:19.060000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:14.180000', '0:01:27.700000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_39</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.06939904450590897</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A', 'D/5', 'E/4', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E', 'A']]</t>
+          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(4.875, 8.638)]</t>
+          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(0.656213, 6.319079)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:04:05.420000', '0:04:23.440000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:20.420000', '0:00:24.160000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:7', 'C:min', 'C:min'], ['D#/G', 'C:min/G', 'G:7', 'C:min'], ['C:min', 'C:min/G', 'G:7', 'C:min']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_114</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6363636363636364</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E'], ['C:maj', 'A:min/E', 'E:7', 'A:min'], ['A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(20.92, 26.04), (56.8, 61.48), (19.84, 24.02)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(44.18, 53.28), (40.96, 50.54), (47.96, 61.66)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:06.726778', '0:00:13.147096')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_56</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_80</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.07486085343228201</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C', 'C/7', 'A:min7', 'D:7', 'G:7', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F/5', 'F', 'F:maj6', 'G:7', 'C:7', 'F']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(112.744512, 127.280204)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(5.82, 14.0)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:00.260000', '0:00:23.340000'), ('0:01:01.440000', '0:01:25.440000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:00.860000', '0:00:25.020000'), ('0:01:01.240000', '0:01:24.100000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_30</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1546052631578947</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'E', 'A', 'D', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_150</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_80</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'D', 'G', 'C', 'D', 'G']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(0.420489, 9.618952)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(11.14034, 18.129546)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:00.780000', '0:00:16.040000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:01.240000', '0:00:15.940000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_132</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_21</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.07694805194805195</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C#:min', 'G#:7', 'C#:min']]</t>
-        </is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['Bb:min', 'F:7', 'Bb:min']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(24.282834, 30.041383)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(43.68, 44.98)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:08.340000', '0:00:26.400000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:07.760000', '0:00:25.820000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.3189655172413793</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7/A', 'E:maj/G#', 'E:maj/B']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(63.01, 68.27)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(219.56, 230.9)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:10.200000', '0:00:29.800000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:05.700000', '0:00:19.720000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_89</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1274509803921569</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>schubert-winterreise_56</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F#', 'B', 'F#']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(80.42, 84.64)]</t>
+          <t>[['C#:maj/G#', 'G#:(3,5,b7,b9)', 'C#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(15.880484, 21.522933)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:21.880000', '0:00:24.860000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:58.060000', '0:01:00.620000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_18</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_200</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3452380952380952</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E:maj', 'B:7/A', 'E:maj/G#', 'E:maj/B']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(74.4, 86.06)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(207.92, 219.14)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
